--- a/src/main/resources/static/templatefiles/包干收入导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/包干收入导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="348"/>
+    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>区域</t>
   </si>
   <si>
     <t>站点编码</t>
-  </si>
-  <si>
-    <t>站点名称</t>
   </si>
   <si>
     <t>签认金额(不含税)</t>
@@ -184,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -212,7 +209,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,39 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +307,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -280,61 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,11 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -631,32 +649,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,137 +686,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,17 +844,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1206,65 +1196,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>202006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
         <v>1000</v>
       </c>
-      <c r="E2" s="10">
-        <v>202006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>202006</v>
       </c>
     </row>
@@ -1300,117 +1285,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="75" customHeight="1" spans="1:18">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
       <c r="I3" s="5">
         <v>43101</v>
@@ -1419,25 +1404,25 @@
         <v>43501</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="6">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3">
         <v>201805</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="4:17">
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5">
         <v>43533</v>
@@ -1446,13 +1431,13 @@
         <v>43708</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4">
@@ -1467,13 +1452,13 @@
         <v>43994</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="8">
         <v>0.2339</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5">
@@ -1482,7 +1467,7 @@
     </row>
     <row r="6" spans="12:17">
       <c r="L6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="8">
         <v>0.1912</v>
@@ -1494,7 +1479,7 @@
     </row>
     <row r="7" spans="12:16">
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7">
         <v>0.2541</v>
@@ -1503,7 +1488,7 @@
     </row>
     <row r="8" spans="12:16">
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <v>0.7351</v>
@@ -1512,55 +1497,55 @@
     </row>
     <row r="9" spans="12:16">
       <c r="L9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="12:16">
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="12:16">
       <c r="L11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="12:16">
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="12:16">
       <c r="L13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="12:16">
       <c r="L14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="12:16">
       <c r="L15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="12:16">
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="12:16">
       <c r="L17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7"/>
     </row>
